--- a/base_iphoneXR.xlsx
+++ b/base_iphoneXR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenshen/Desktop/Enzo - CD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenshen/Desktop/Cdados-Proj2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3A21B0-3740-7444-8661-A7F923002D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD7A731-1E68-5744-9494-524C2A7154C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="544">
   <si>
     <t>rt @2e_crf: koe rapaziada boa tarde ,fui roubado ontem na meriti altura do shopping carioca ,eram 4 travestis ,levaram meu celular ,estava…</t>
   </si>
@@ -1794,18 +1794,29 @@
     <t>alguém sabe me dizer se um iphone xr vale a pena?</t>
   </si>
   <si>
-    <t>Tweets</t>
-  </si>
-  <si>
-    <t>Relevancia</t>
+    <t>Treinamento</t>
+  </si>
+  <si>
+    <t>Classe</t>
+  </si>
+  <si>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1833,8 +1844,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2176,7 +2190,7 @@
   <dimension ref="A1:B503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2185,10 +2199,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>542</v>
       </c>
     </row>
@@ -6217,8 +6231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8E7EA4-3AB6-AF4F-A8E6-5D6B7E8A578D}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="Q61" sqref="Q61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6227,10 +6241,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>542</v>
       </c>
     </row>
